--- a/G-80.EP-09.FichaDeControl-Preliminar.xlsx
+++ b/G-80.EP-09.FichaDeControl-Preliminar.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0FC1C7-9FB2-4C6B-84EC-EB22FF733529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581A2A5C-6777-4435-A6DD-2EDD82599998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos del Proyecto" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>Grupo de Clase</t>
   </si>
@@ -384,6 +384,12 @@
   <si>
     <t>Los datos se pueden descargar desde el siguiente enlace: https://www.kaggle.com/datasets/nehalbirla/vehicle-dataset-from-cardekho?select=car+details+v4.csv
 Si se descargan todos los archivos de la página de kaggle, el que se va a usar en esta apliación es "car details v4.csv"</t>
+  </si>
+  <si>
+    <t>Hemos evaludao que columnas tienen valores vacíos. La columna con más valores vacíos es "Drivetrain", pero esta columna no la usaremos así que la eliminamos. Hay otas columnas que tienen filas vacías. En estos casos borraremos las filas vacías en vez de borrar todas las columnas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Después de borrar estas filas seguimos teniendo un conjunto de datos suficientemente grande y representativo, ya que solo se han borrado __ filas</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1469,7 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="144" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
@@ -1798,8 +1804,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="108" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="108" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1948,7 +1954,7 @@
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="2:6" ht="87" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="93.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
@@ -1961,7 +1967,9 @@
       <c r="E11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
@@ -1978,7 +1986,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
@@ -1991,7 +1999,9 @@
       <c r="E13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">

--- a/G-80.EP-09.FichaDeControl-Preliminar.xlsx
+++ b/G-80.EP-09.FichaDeControl-Preliminar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581A2A5C-6777-4435-A6DD-2EDD82599998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B71679-4204-4102-AB81-080C6C69FF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,25 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Hoja de Anotaciones'!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Metodología!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>Grupo de Clase</t>
   </si>
@@ -386,10 +399,14 @@
 Si se descargan todos los archivos de la página de kaggle, el que se va a usar en esta apliación es "car details v4.csv"</t>
   </si>
   <si>
-    <t>Hemos evaludao que columnas tienen valores vacíos. La columna con más valores vacíos es "Drivetrain", pero esta columna no la usaremos así que la eliminamos. Hay otas columnas que tienen filas vacías. En estos casos borraremos las filas vacías en vez de borrar todas las columnas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Después de borrar estas filas seguimos teniendo un conjunto de datos suficientemente grande y representativo, ya que solo se han borrado __ filas</t>
+    <t>Hemos evaludao que columnas tienen valores vacíos. La columna con más valores vacíos es "Drivetrain", pero esta columna no la usaremos así que la eliminamos. Hay otas columnas que tienen filas vacías. En estos casos borraremos las filas vacías en vez de borrar todas las columnas.
+También había filas con valores que no eran vacíos, pero solo tenían espacio, no tenían datos. Estos los hemos considerado como valores incorrectos y también hemos eliminado esas filas.</t>
+  </si>
+  <si>
+    <t>Hemos eliminado las filas indicadas anteriormente. Además, hemos eliminado columnas que no vamos a utilizar en la aplicación porque consideramos que no es información importante para la gente interesada en comprar un coche. Estas comlumnas son:  seller type, drivetrain y max_torque. Además, hemos eliminado la columna de localizacion porque todas las localizaciones eran del mismo país.</t>
+  </si>
+  <si>
+    <t>Después de borrar estas filas y columnas seguimos teniendo un conjunto de datos suficientemente grande y representativo, ya que tenemos 1938 filas y 16 columnas. También seguimos teniendo los tres tipos de datos mencionados anteriormente</t>
   </si>
 </sst>
 </file>
@@ -1749,12 +1766,15 @@
   </sheetData>
   <sheetProtection password="EF12" sheet="1" objects="1" scenarios="1" formatCells="0" formatRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="27">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
@@ -1767,15 +1787,12 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C6 B11:E12 B16">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -1804,8 +1821,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="108" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1954,7 +1971,7 @@
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="2:6" ht="93.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="159.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
@@ -1971,7 +1988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
         <v>26</v>
       </c>
@@ -1984,9 +2001,11 @@
       <c r="E12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="2:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
@@ -2000,7 +2019,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -2356,23 +2375,18 @@
   </sheetData>
   <sheetProtection password="EF12" sheet="1" objects="1" scenarios="1" formatCells="0" formatRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="41">
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
@@ -2385,18 +2399,23 @@
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="1.1811023622047245" bottom="1.1811023622047245" header="0.59055118110236227" footer="0.59055118110236227"/>

--- a/G-80.EP-09.FichaDeControl-Preliminar.xlsx
+++ b/G-80.EP-09.FichaDeControl-Preliminar.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B71679-4204-4102-AB81-080C6C69FF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB017CD-D88F-4A3A-B610-C6BA5A76EAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos del Proyecto" sheetId="5" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>Grupo de Clase</t>
   </si>
@@ -403,10 +403,19 @@
 También había filas con valores que no eran vacíos, pero solo tenían espacio, no tenían datos. Estos los hemos considerado como valores incorrectos y también hemos eliminado esas filas.</t>
   </si>
   <si>
-    <t>Hemos eliminado las filas indicadas anteriormente. Además, hemos eliminado columnas que no vamos a utilizar en la aplicación porque consideramos que no es información importante para la gente interesada en comprar un coche. Estas comlumnas son:  seller type, drivetrain y max_torque. Además, hemos eliminado la columna de localizacion porque todas las localizaciones eran del mismo país.</t>
-  </si>
-  <si>
-    <t>Después de borrar estas filas y columnas seguimos teniendo un conjunto de datos suficientemente grande y representativo, ya que tenemos 1938 filas y 16 columnas. También seguimos teniendo los tres tipos de datos mencionados anteriormente</t>
+    <t>Hemos eliminado las filas indicadas anteriormente. Además, hemos eliminado columnas que no vamos a utilizar en la aplicación porque consideramos que no es información importante para la gente interesada en comprar un coche. Estas comlumnas son:  seller type, drivetrain, max_torque, length, width, height, seller type, owner. Además, hemos eliminado la columna de localizacion porque todas las localizaciones eran del mismo país.</t>
+  </si>
+  <si>
+    <t>Después de borrar estas filas y columnas seguimos teniendo un conjunto de datos suficientemente grande y representativo, ya que tenemos 1935 filas y 16 columnas. También seguimos teniendo los tres tipos de datos mencionados anteriormente</t>
+  </si>
+  <si>
+    <t>El cuadro de mandos está en el archivo G-80-09.CuadroDeMandos</t>
+  </si>
+  <si>
+    <t>Se realiza todo lo especificado en el paso 02.</t>
+  </si>
+  <si>
+    <t>Se ha creado el vídeo cuyo enlace está ne la hoja de "Datos del Proyecto"</t>
   </si>
 </sst>
 </file>
@@ -509,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -759,11 +768,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -841,6 +887,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1766,15 +1824,12 @@
   </sheetData>
   <sheetProtection password="EF12" sheet="1" objects="1" scenarios="1" formatCells="0" formatRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="27">
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
@@ -1787,12 +1842,15 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C6 B11:E12 B16">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -1821,8 +1879,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A12" zoomScale="108" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -2035,7 +2093,9 @@
       <c r="E14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
@@ -2050,7 +2110,9 @@
       <c r="E15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
@@ -2065,7 +2127,9 @@
       <c r="E16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -2097,8 +2161,8 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -2180,10 +2244,10 @@
       <c r="E12" s="22"/>
     </row>
     <row r="13" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20"/>
@@ -2375,6 +2439,35 @@
   </sheetData>
   <sheetProtection password="EF12" sheet="1" objects="1" scenarios="1" formatCells="0" formatRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="41">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
@@ -2387,35 +2480,6 @@
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="1.1811023622047245" bottom="1.1811023622047245" header="0.59055118110236227" footer="0.59055118110236227"/>
